--- a/Test Executions/ECPe Test.xlsx
+++ b/Test Executions/ECPe Test.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="25500" windowHeight="15140" tabRatio="991"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="25500" windowHeight="15140" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evolution" sheetId="2" r:id="rId2"/>
+    <sheet name="Send-in" sheetId="3" r:id="rId3"/>
+    <sheet name="Send-out" sheetId="4" r:id="rId4"/>
+    <sheet name="Antiport" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Compilation Test</t>
   </si>
@@ -199,6 +203,27 @@
   </si>
   <si>
     <t>Does all the object that can be applied a rule will be applied?</t>
+  </si>
+  <si>
+    <t>Object changes</t>
+  </si>
+  <si>
+    <t>Energy adds</t>
+  </si>
+  <si>
+    <t>Negative energy not accepted</t>
+  </si>
+  <si>
+    <t>Skin Membrane</t>
+  </si>
+  <si>
+    <t>Child membranes</t>
+  </si>
+  <si>
+    <t>No energy means 0 energy</t>
+  </si>
+  <si>
+    <t>No object not accepted</t>
   </si>
 </sst>
 </file>
@@ -683,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -948,4 +973,118 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>